--- a/workingfolder/python/tables/spf_moments.xlsx
+++ b/workingfolder/python/tables/spf_moments.xlsx
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.145593404769897</v>
+        <v>-6.988130962781725E-08</v>
       </c>
       <c r="C2">
         <v>1.144723534584045</v>
@@ -572,37 +572,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-9.272759905272832</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-9.351938041514494</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-0.1829282408976683</v>
+        <v>-0.05830520788542398</v>
       </c>
       <c r="F3">
-        <v>1.328087800361673</v>
+        <v>0.3400238586190717</v>
       </c>
       <c r="G3">
-        <v>1.086550876838654</v>
+        <v>0.07535685496909933</v>
       </c>
       <c r="H3">
-        <v>0.08780731367122278</v>
+        <v>0.9063929398773607</v>
       </c>
       <c r="I3">
-        <v>0.008082646004654548</v>
+        <v>0.7116691107469898</v>
       </c>
       <c r="J3">
-        <v>0.004376983759223775</v>
+        <v>0.6200230953650364</v>
       </c>
       <c r="K3">
-        <v>0.4759578641814757</v>
+        <v>2.427233269204584</v>
       </c>
       <c r="L3">
-        <v>0.0003117805284105527</v>
+        <v>0.00807063324930978</v>
       </c>
       <c r="M3">
-        <v>0.0002031287226328058</v>
+        <v>0.005430158360001892</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -613,37 +613,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-9.272759905272832</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-9.351938041514494</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.1829282408976683</v>
+        <v>-0.0147603227338363</v>
       </c>
       <c r="F4">
-        <v>1.328087800361673</v>
+        <v>0.4014853019561169</v>
       </c>
       <c r="G4">
-        <v>1.086550876838654</v>
+        <v>0.05908379740291336</v>
       </c>
       <c r="H4">
-        <v>0.08780731367122278</v>
+        <v>1.008302110749463</v>
       </c>
       <c r="I4">
-        <v>0.008082646004654548</v>
+        <v>0.5876954894759492</v>
       </c>
       <c r="J4">
-        <v>0.004376983759223775</v>
+        <v>0.4783395297021388</v>
       </c>
       <c r="K4">
-        <v>0.4759578641814757</v>
+        <v>2.355380386974529</v>
       </c>
       <c r="L4">
-        <v>0.0003117805284105527</v>
+        <v>0.007421882828360582</v>
       </c>
       <c r="M4">
-        <v>0.0002031287226328058</v>
+        <v>0.004900623612891733</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -654,43 +654,79 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-9.272759905272832</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-9.351938041514494</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1829282408976683</v>
+        <v>-0.0147603227338363</v>
       </c>
       <c r="F5">
-        <v>1.328087800361673</v>
+        <v>0.4014853019561169</v>
       </c>
       <c r="G5">
-        <v>1.086550876838654</v>
+        <v>0.05908379740291336</v>
       </c>
       <c r="H5">
-        <v>0.08780731367122278</v>
+        <v>1.008302110749463</v>
       </c>
       <c r="I5">
-        <v>0.008082646004654548</v>
+        <v>0.5876954894759492</v>
       </c>
       <c r="J5">
-        <v>0.004376983759223775</v>
+        <v>0.4783395297021388</v>
       </c>
       <c r="K5">
-        <v>0.4759578641814757</v>
+        <v>2.355380386974529</v>
       </c>
       <c r="L5">
-        <v>0.0003117805284105527</v>
+        <v>0.007421882828360582</v>
       </c>
       <c r="M5">
-        <v>0.0002031287226328058</v>
+        <v>0.004900623612891733</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.04635286573504937</v>
+      </c>
+      <c r="F6">
+        <v>0.3934541319018796</v>
+      </c>
+      <c r="G6">
+        <v>-0.04984878472606311</v>
+      </c>
+      <c r="H6">
+        <v>0.4154546887941008</v>
+      </c>
+      <c r="I6">
+        <v>0.0007553802020709633</v>
+      </c>
+      <c r="J6">
+        <v>0.0002235581476850461</v>
+      </c>
+      <c r="K6">
+        <v>1.528949768037249</v>
+      </c>
+      <c r="L6">
+        <v>2.839899258795642E-29</v>
+      </c>
+      <c r="M6">
+        <v>2.845993463213659E-29</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
@@ -700,37 +736,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-9.272759905272832</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-9.351938041514494</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-0.1502031256016434</v>
+        <v>0.02968532041773266</v>
       </c>
       <c r="F7">
-        <v>1.334422745868837</v>
+        <v>0.3421199798815353</v>
       </c>
       <c r="G7">
-        <v>1.097700616913428</v>
+        <v>-0.05687896970063191</v>
       </c>
       <c r="H7">
-        <v>0.1576058957164763</v>
+        <v>0.3504061492434056</v>
       </c>
       <c r="I7">
-        <v>8.09951575074843E-05</v>
+        <v>0.0005230405822047129</v>
       </c>
       <c r="J7">
-        <v>1.523180230556226E-05</v>
+        <v>0.000123524039266873</v>
       </c>
       <c r="K7">
-        <v>0.4295155770452628</v>
+        <v>1.354212352525112</v>
       </c>
       <c r="L7">
-        <v>1.97215226305253E-31</v>
+        <v>3.594247499413235E-29</v>
       </c>
       <c r="M7">
-        <v>2.007369267749896E-31</v>
+        <v>3.601960476879787E-29</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -741,37 +777,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-9.272759905272832</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-9.351938041514494</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-0.1539188396325001</v>
+        <v>0.1480759987840615</v>
       </c>
       <c r="F8">
-        <v>1.335525935759498</v>
+        <v>0.7659614723941388</v>
       </c>
       <c r="G8">
-        <v>1.098686785597994</v>
+        <v>0.2935634188803161</v>
       </c>
       <c r="H8">
-        <v>0.1528284584511583</v>
+        <v>0.3128696126156332</v>
       </c>
       <c r="I8">
-        <v>7.679952990452211E-05</v>
+        <v>0.0004536009966637378</v>
       </c>
       <c r="J8">
-        <v>1.386434455739108E-05</v>
+        <v>0.0002023950798711012</v>
       </c>
       <c r="K8">
-        <v>0.4187463776949325</v>
+        <v>2.118143040633874</v>
       </c>
       <c r="L8">
-        <v>7.703719777548943E-32</v>
+        <v>2.415886522239349E-28</v>
       </c>
       <c r="M8">
-        <v>7.841286202148031E-32</v>
+        <v>2.421070828081064E-28</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -782,37 +818,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-9.272759905272832</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-9.351938041514494</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-0.2294400349162296</v>
+        <v>-0.003579967543327775</v>
       </c>
       <c r="F9">
-        <v>1.359175270404221</v>
+        <v>3.009209104201039</v>
       </c>
       <c r="G9">
-        <v>1.003713320404136</v>
+        <v>0.09493837353832454</v>
       </c>
       <c r="H9">
-        <v>0.06537347099485095</v>
+        <v>0.2903324325689372</v>
       </c>
       <c r="I9">
-        <v>0.04829595189460371</v>
+        <v>0.1791643622866484</v>
       </c>
       <c r="J9">
-        <v>0.0004284137910405103</v>
+        <v>0.01007169754559157</v>
       </c>
       <c r="K9">
-        <v>0.1590323578476342</v>
+        <v>0.801944788792938</v>
       </c>
       <c r="L9">
-        <v>1.925929944387236E-32</v>
+        <v>5.435744675038534E-30</v>
       </c>
       <c r="M9">
-        <v>1.960321550537008E-32</v>
+        <v>4.940960873634824E-30</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -823,37 +859,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-9.272759905272832</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-9.351938041514494</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-0.2430018732667184</v>
+        <v>0.04752840069908072</v>
       </c>
       <c r="F10">
-        <v>1.573911445624939</v>
+        <v>4.817190569244339</v>
       </c>
       <c r="G10">
-        <v>0.8272630374130567</v>
+        <v>-0.2654896072804981</v>
       </c>
       <c r="H10">
-        <v>0.07832639576282265</v>
+        <v>0.484355037267985</v>
       </c>
       <c r="I10">
-        <v>0.06933043527998731</v>
+        <v>0.41937787721498</v>
       </c>
       <c r="J10">
-        <v>0.0006150021574811725</v>
+        <v>-0.03034066380269484</v>
       </c>
       <c r="K10">
-        <v>0.1590323578476342</v>
+        <v>0.801944788792938</v>
       </c>
       <c r="L10">
-        <v>1.925929944387236E-32</v>
+        <v>5.435744675038534E-30</v>
       </c>
       <c r="M10">
-        <v>1.960321550537008E-32</v>
+        <v>4.940960873634824E-30</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -864,43 +900,79 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-9.272759905272832</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-9.351938041514494</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>-0.2430018732667184</v>
+        <v>0.04752840069908072</v>
       </c>
       <c r="F11">
-        <v>1.573911445624939</v>
+        <v>4.817190569244339</v>
       </c>
       <c r="G11">
-        <v>0.8272630374130567</v>
+        <v>-0.2654896072804981</v>
       </c>
       <c r="H11">
-        <v>0.07832639576282265</v>
+        <v>0.484355037267985</v>
       </c>
       <c r="I11">
-        <v>0.06933043527998731</v>
+        <v>0.41937787721498</v>
       </c>
       <c r="J11">
-        <v>0.0006150021574811725</v>
+        <v>-0.03034066380269484</v>
       </c>
       <c r="K11">
-        <v>0.1590323578476342</v>
+        <v>0.801944788792938</v>
       </c>
       <c r="L11">
-        <v>1.925929944387236E-32</v>
+        <v>5.435744675038534E-30</v>
       </c>
       <c r="M11">
-        <v>1.960321550537008E-32</v>
+        <v>4.940960873634824E-30</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.05978570338108916</v>
+      </c>
+      <c r="F12">
+        <v>2.101859155815864</v>
+      </c>
+      <c r="G12">
+        <v>-0.5222631437339688</v>
+      </c>
+      <c r="H12">
+        <v>1.923559800402738</v>
+      </c>
+      <c r="I12">
+        <v>0.01362372702717119</v>
+      </c>
+      <c r="J12">
+        <v>0.003307946537130625</v>
+      </c>
+      <c r="K12">
+        <v>1.282445377314577</v>
+      </c>
+      <c r="L12">
+        <v>5.965760595733902E-30</v>
+      </c>
+      <c r="M12">
+        <v>5.978562657098138E-30</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
@@ -910,37 +982,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>-9.272759905272832</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-9.351938041514494</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01834293564210267</v>
+        <v>0.1036930408465265</v>
       </c>
       <c r="F13">
-        <v>1.662231146956416</v>
+        <v>1.641608615122233</v>
       </c>
       <c r="G13">
-        <v>1.283312114608157</v>
+        <v>-0.0216343602596395</v>
       </c>
       <c r="H13">
-        <v>0.5284704468562219</v>
+        <v>1.88335766327739</v>
       </c>
       <c r="I13">
-        <v>0.0009039140072067868</v>
+        <v>0.01377767394134808</v>
       </c>
       <c r="J13">
-        <v>0.0001758925572052078</v>
+        <v>0.0006950414970530134</v>
       </c>
       <c r="K13">
-        <v>0.9116165097053134</v>
+        <v>2.034950389185837</v>
       </c>
       <c r="L13">
-        <v>1.232595164407831E-30</v>
+        <v>1.774937036747277E-30</v>
       </c>
       <c r="M13">
-        <v>1.254605792343685E-30</v>
+        <v>1.778745914508537E-30</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -951,37 +1023,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-9.272759905272832</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-9.351938041514494</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02731230507646374</v>
+        <v>0.1513245328683536</v>
       </c>
       <c r="F14">
-        <v>2.573000452764681</v>
+        <v>1.430229496766241</v>
       </c>
       <c r="G14">
-        <v>1.289798873466598</v>
+        <v>0.2038468732994141</v>
       </c>
       <c r="H14">
-        <v>1.258642797473711</v>
+        <v>1.20288124391921</v>
       </c>
       <c r="I14">
-        <v>0.005618632788854183</v>
+        <v>0.005939583161199985</v>
       </c>
       <c r="J14">
-        <v>-6.00550508295022E-06</v>
+        <v>0.0009342452166989785</v>
       </c>
       <c r="K14">
-        <v>0.9722677290699268</v>
+        <v>2.342500249112021</v>
       </c>
       <c r="L14">
-        <v>1.232595164407831E-32</v>
+        <v>7.119469669619632E-29</v>
       </c>
       <c r="M14">
-        <v>1.254605792343685E-32</v>
+        <v>7.905537397815719E-29</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -989,31 +1061,31 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>-0.2214370024680831</v>
+        <v>3.04982991176699E-05</v>
       </c>
       <c r="F15">
-        <v>1.181368643737111</v>
+        <v>1.322257755762889E-06</v>
       </c>
       <c r="G15">
-        <v>0.9645877742278268</v>
+        <v>1.687078097113069E-07</v>
       </c>
       <c r="H15">
-        <v>0.05726143574848344</v>
+        <v>2.853234980418634E-06</v>
       </c>
       <c r="I15">
-        <v>0.005376424676203698</v>
+        <v>1.155619596986963E-11</v>
       </c>
       <c r="J15">
-        <v>0.002399228410012718</v>
+        <v>1.049031921478155E-11</v>
       </c>
       <c r="K15">
-        <v>0.005363382045058738</v>
+        <v>5.735841689583602E-06</v>
       </c>
       <c r="L15">
-        <v>1.226929085701181E-05</v>
+        <v>2.524842922867389E-11</v>
       </c>
       <c r="M15">
-        <v>1.072589434742275E-05</v>
+        <v>2.519518469257158E-11</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1021,31 +1093,31 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>-0.2217917881695042</v>
+        <v>-0.0002261597385029233</v>
       </c>
       <c r="F16">
-        <v>1.180133470671249</v>
+        <v>8.853544808984725E-06</v>
       </c>
       <c r="G16">
-        <v>0.9633905052215865</v>
+        <v>1.816703049353086E-06</v>
       </c>
       <c r="H16">
-        <v>0.05914668959396643</v>
+        <v>2.282970355035119E-05</v>
       </c>
       <c r="I16">
-        <v>0.005435136885026791</v>
+        <v>2.126876298157896E-09</v>
       </c>
       <c r="J16">
-        <v>0.002537651376271756</v>
+        <v>1.964295578190866E-09</v>
       </c>
       <c r="K16">
-        <v>0.00544845392463137</v>
+        <v>4.138219880126974E-05</v>
       </c>
       <c r="L16">
-        <v>1.219045632787782E-05</v>
+        <v>2.044025140945604E-09</v>
       </c>
       <c r="M16">
-        <v>1.069317296075729E-05</v>
+        <v>2.041774794697484E-09</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1053,68 +1125,95 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>-0.2219266790334069</v>
+        <v>-0.0002465707462691049</v>
       </c>
       <c r="F17">
-        <v>1.177850342692812</v>
+        <v>9.347951400936354E-06</v>
       </c>
       <c r="G17">
-        <v>0.9611121247911363</v>
+        <v>2.30918997797262E-06</v>
       </c>
       <c r="H17">
-        <v>0.06048055679399495</v>
+        <v>2.371805848418646E-05</v>
       </c>
       <c r="I17">
-        <v>0.005391074831257928</v>
+        <v>2.333542980756478E-09</v>
       </c>
       <c r="J17">
-        <v>0.002644796331695416</v>
+        <v>2.166827275844826E-09</v>
       </c>
       <c r="K17">
-        <v>0.005543732245236213</v>
+        <v>4.236582307273997E-05</v>
       </c>
       <c r="L17">
-        <v>1.207825745168351E-05</v>
+        <v>2.134699070570012E-09</v>
       </c>
       <c r="M17">
-        <v>1.062467281832981E-05</v>
+        <v>2.132903609809513E-09</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E18">
+        <v>0.02017975204408363</v>
+      </c>
+      <c r="F18">
+        <v>0.0004542608191382014</v>
+      </c>
+      <c r="G18">
+        <v>0.0004408710129724271</v>
+      </c>
+      <c r="H18">
+        <v>1.237277485020459E-05</v>
+      </c>
+      <c r="I18">
+        <v>1.500328420198403E-10</v>
+      </c>
+      <c r="J18">
+        <v>1.502598105907721E-10</v>
+      </c>
+      <c r="K18">
+        <v>0.001342053523274252</v>
+      </c>
+      <c r="L18">
+        <v>9.4544502669448E-07</v>
+      </c>
+      <c r="M18">
+        <v>9.466131698347057E-07</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E19">
-        <v>-0.1504299316570182</v>
+        <v>0.006143124466848736</v>
       </c>
       <c r="F19">
-        <v>1.142407337724565</v>
+        <v>5.699515167131308E-05</v>
       </c>
       <c r="G19">
-        <v>0.9316224156124275</v>
+        <v>5.595884323394623E-05</v>
       </c>
       <c r="H19">
-        <v>0.0002888264745666814</v>
+        <v>1.078460907728614E-06</v>
       </c>
       <c r="I19">
-        <v>3.514990816762237E-09</v>
+        <v>7.203138133780777E-13</v>
       </c>
       <c r="J19">
-        <v>3.080633385233122E-09</v>
+        <v>7.199294056447268E-13</v>
       </c>
       <c r="K19">
-        <v>0.02413520640500097</v>
+        <v>0.0002574414881415026</v>
       </c>
       <c r="L19">
-        <v>7.719093670730429E-05</v>
+        <v>6.873472437492059E-09</v>
       </c>
       <c r="M19">
-        <v>6.665901660778615E-05</v>
+        <v>6.848251690458709E-09</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1122,31 +1221,31 @@
         <v>29</v>
       </c>
       <c r="E20">
-        <v>-0.1504299316570182</v>
+        <v>0.006143124466848736</v>
       </c>
       <c r="F20">
-        <v>1.142407337724565</v>
+        <v>5.699515167131308E-05</v>
       </c>
       <c r="G20">
-        <v>0.9316224156124275</v>
+        <v>5.595884323394623E-05</v>
       </c>
       <c r="H20">
-        <v>0.0002888264745666814</v>
+        <v>1.078460907728614E-06</v>
       </c>
       <c r="I20">
-        <v>3.514990816762237E-09</v>
+        <v>7.203138133780777E-13</v>
       </c>
       <c r="J20">
-        <v>3.080633385233122E-09</v>
+        <v>7.199294056447268E-13</v>
       </c>
       <c r="K20">
-        <v>0.02413520640500097</v>
+        <v>0.0002574414881415026</v>
       </c>
       <c r="L20">
-        <v>7.719093670730429E-05</v>
+        <v>6.873472437492059E-09</v>
       </c>
       <c r="M20">
-        <v>6.665901660778615E-05</v>
+        <v>6.848251690458709E-09</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1154,31 +1253,31 @@
         <v>30</v>
       </c>
       <c r="E21">
-        <v>-0.2271947838511963</v>
+        <v>-9.550550007629545E-06</v>
       </c>
       <c r="F21">
-        <v>1.317754157388161</v>
+        <v>2.322636844196244E-06</v>
       </c>
       <c r="G21">
-        <v>1.024871953442205</v>
+        <v>8.49110860072011E-07</v>
       </c>
       <c r="H21">
-        <v>42.34791089134917</v>
+        <v>0.001234793694234009</v>
       </c>
       <c r="I21">
-        <v>18441.50507978247</v>
+        <v>4.293935691277007E-06</v>
       </c>
       <c r="J21">
-        <v>4325.682386150674</v>
+        <v>4.355340793075507E-07</v>
       </c>
       <c r="K21">
-        <v>0.002982972690083505</v>
+        <v>9.861348368513163E-07</v>
       </c>
       <c r="L21">
-        <v>1.044812550522738E-05</v>
+        <v>5.271151386122459E-13</v>
       </c>
       <c r="M21">
-        <v>8.723568614427234E-06</v>
+        <v>5.038616579524655E-13</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1186,31 +1285,31 @@
         <v>31</v>
       </c>
       <c r="E22">
-        <v>-0.2301447270616781</v>
+        <v>-4.918013016395333E-05</v>
       </c>
       <c r="F22">
-        <v>1.291075345710437</v>
+        <v>1.212223120551698E-06</v>
       </c>
       <c r="G22">
-        <v>1.04541203786882</v>
+        <v>-3.434865358340723E-08</v>
       </c>
       <c r="H22">
-        <v>0.07071768611306074</v>
+        <v>3.918925665006828E-06</v>
       </c>
       <c r="I22">
-        <v>0.05142667734054233</v>
+        <v>5.198377189635467E-11</v>
       </c>
       <c r="J22">
-        <v>0.01206276122191984</v>
+        <v>1.089940528447007E-11</v>
       </c>
       <c r="K22">
-        <v>0.002982972690083505</v>
+        <v>2.015933335195811E-06</v>
       </c>
       <c r="L22">
-        <v>1.044812550522738E-05</v>
+        <v>4.060592043585097E-12</v>
       </c>
       <c r="M22">
-        <v>8.723568614427234E-06</v>
+        <v>3.945789335512037E-12</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1218,68 +1317,95 @@
         <v>32</v>
       </c>
       <c r="E23">
-        <v>-0.2301447270616781</v>
+        <v>-4.918013016395333E-05</v>
       </c>
       <c r="F23">
-        <v>1.291075345710437</v>
+        <v>1.212223120551698E-06</v>
       </c>
       <c r="G23">
-        <v>1.04541203786882</v>
+        <v>-3.434865358340723E-08</v>
       </c>
       <c r="H23">
-        <v>0.07071768611306074</v>
+        <v>3.918925665006828E-06</v>
       </c>
       <c r="I23">
-        <v>0.05142667734054233</v>
+        <v>5.198377189635467E-11</v>
       </c>
       <c r="J23">
-        <v>0.01206276122191984</v>
+        <v>1.089940528447007E-11</v>
       </c>
       <c r="K23">
-        <v>0.002982972690083505</v>
+        <v>2.015933335195811E-06</v>
       </c>
       <c r="L23">
-        <v>1.044812550522738E-05</v>
+        <v>4.060592043585097E-12</v>
       </c>
       <c r="M23">
-        <v>8.723568614427234E-06</v>
+        <v>3.945789335512037E-12</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E24">
+        <v>0.02313835960025783</v>
+      </c>
+      <c r="F24">
+        <v>0.0004687964129736069</v>
+      </c>
+      <c r="G24">
+        <v>0.000406646230379195</v>
+      </c>
+      <c r="H24">
+        <v>9.871918216865349E-06</v>
+      </c>
+      <c r="I24">
+        <v>3.908704261820706E-11</v>
+      </c>
+      <c r="J24">
+        <v>3.81351275277919E-11</v>
+      </c>
+      <c r="K24">
+        <v>0.0005655587627048674</v>
+      </c>
+      <c r="L24">
+        <v>1.118670363394964E-07</v>
+      </c>
+      <c r="M24">
+        <v>1.091460264437043E-07</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E25">
-        <v>-0.168658960806838</v>
+        <v>0.02458316731348448</v>
       </c>
       <c r="F25">
-        <v>1.031151676289424</v>
+        <v>0.000357009619959635</v>
       </c>
       <c r="G25">
-        <v>0.8183520413069608</v>
+        <v>0.0003104980422480224</v>
       </c>
       <c r="H25">
-        <v>0.001231906785493559</v>
+        <v>3.63863074993663E-05</v>
       </c>
       <c r="I25">
-        <v>5.414120379196938E-07</v>
+        <v>7.021105256404883E-10</v>
       </c>
       <c r="J25">
-        <v>4.30981321396176E-07</v>
+        <v>6.863756048990907E-10</v>
       </c>
       <c r="K25">
-        <v>0.01389103437954236</v>
+        <v>0.0004601043896032899</v>
       </c>
       <c r="L25">
-        <v>4.306253194453169E-05</v>
+        <v>1.060248579879899E-07</v>
       </c>
       <c r="M25">
-        <v>3.734443153195069E-05</v>
+        <v>1.036819053587068E-07</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1287,31 +1413,31 @@
         <v>35</v>
       </c>
       <c r="E26">
-        <v>-0.02812598274878125</v>
+        <v>0.1411814472911681</v>
       </c>
       <c r="F26">
-        <v>1.154436743421857</v>
+        <v>0.007451042704150982</v>
       </c>
       <c r="G26">
-        <v>0.9324703625643973</v>
+        <v>0.006512965616889736</v>
       </c>
       <c r="H26">
-        <v>0.1108012521606387</v>
+        <v>0.02460215372691189</v>
       </c>
       <c r="I26">
-        <v>0.00053690415800871</v>
+        <v>0.0004235135650665852</v>
       </c>
       <c r="J26">
-        <v>0.0005298453332611121</v>
+        <v>0.0004152128383758606</v>
       </c>
       <c r="K26">
-        <v>0.1248343469673155</v>
+        <v>0.02600202288483916</v>
       </c>
       <c r="L26">
-        <v>0.0006146208107723653</v>
+        <v>0.000520414257377082</v>
       </c>
       <c r="M26">
-        <v>0.0006010811951497761</v>
+        <v>0.0005102705963833773</v>
       </c>
     </row>
   </sheetData>
